--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>Serie</t>
   </si>
@@ -446,6 +446,78 @@
   </si>
   <si>
     <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -803,7 +875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2339,6 +2411,246 @@
         <v>2.79</v>
       </c>
     </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>144</v>
+      </c>
+      <c r="C142">
+        <v>2.83</v>
+      </c>
+      <c r="D142">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>145</v>
+      </c>
+      <c r="C143">
+        <v>2.78</v>
+      </c>
+      <c r="D143">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>146</v>
+      </c>
+      <c r="C144">
+        <v>2.8</v>
+      </c>
+      <c r="D144">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="C145">
+        <v>2.78</v>
+      </c>
+      <c r="D145">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="C146">
+        <v>2.88</v>
+      </c>
+      <c r="D146">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="D147">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="C148">
+        <v>2.86</v>
+      </c>
+      <c r="D148">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="C149">
+        <v>2.9</v>
+      </c>
+      <c r="D149">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="C150">
+        <v>2.92</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="D151">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152">
+        <v>3.04</v>
+      </c>
+      <c r="D152">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="D153">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="C154">
+        <v>2.86</v>
+      </c>
+      <c r="D154">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="C156">
+        <v>2.88</v>
+      </c>
+      <c r="D156">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157">
+        <v>2.84</v>
+      </c>
+      <c r="D157">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="D158">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="D160">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D161">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="C162">
+        <v>2.91</v>
+      </c>
+      <c r="D162">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="C163">
+        <v>3.05</v>
+      </c>
+      <c r="D163">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="C164">
+        <v>2.76</v>
+      </c>
+      <c r="D164">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="C165">
+        <v>2.81</v>
+      </c>
+      <c r="D165">
+        <v>2.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>Serie</t>
   </si>
@@ -518,6 +518,12 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
   </si>
 </sst>
 </file>
@@ -875,7 +881,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2651,6 +2657,25 @@
         <v>2.97</v>
       </c>
     </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="C166">
+        <v>2.81</v>
+      </c>
+      <c r="D166">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167">
+        <v>2.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Serie</t>
   </si>
@@ -524,6 +524,15 @@
   </si>
   <si>
     <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -881,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2676,6 +2685,36 @@
         <v>2.49</v>
       </c>
     </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169">
+        <v>2.98</v>
+      </c>
+      <c r="D169">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170">
+        <v>3.22</v>
+      </c>
+      <c r="D170">
+        <v>2.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -533,6 +533,15 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
   </si>
 </sst>
 </file>
@@ -890,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2715,6 +2724,39 @@
         <v>2.86</v>
       </c>
     </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171">
+        <v>2.95</v>
+      </c>
+      <c r="D171">
+        <v>2.91</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172">
+        <v>2.73</v>
+      </c>
+      <c r="D172">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173">
+        <v>2.79</v>
+      </c>
+      <c r="D173">
+        <v>3.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,18 @@
   </si>
   <si>
     <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2757,6 +2769,47 @@
         <v>3.13</v>
       </c>
     </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="D174">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175">
+        <v>2.86</v>
+      </c>
+      <c r="D175">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176">
+        <v>3.03</v>
+      </c>
+      <c r="D176">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177">
+        <v>3.16</v>
+      </c>
+      <c r="D177">
+        <v>3.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,15 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2810,6 +2819,36 @@
         <v>3.26</v>
       </c>
     </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178">
+        <v>2.89</v>
+      </c>
+      <c r="D178">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179">
+        <v>3.01</v>
+      </c>
+      <c r="D179">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="D180">
+        <v>3.13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,30 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2849,6 +2873,88 @@
         <v>3.13</v>
       </c>
     </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="D181">
+        <v>3.06</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182">
+        <v>2.86</v>
+      </c>
+      <c r="D182">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183">
+        <v>2.76</v>
+      </c>
+      <c r="D183">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184">
+        <v>2.74</v>
+      </c>
+      <c r="D184">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185">
+        <v>2.68</v>
+      </c>
+      <c r="D185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186">
+        <v>2.65</v>
+      </c>
+      <c r="D186">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="D187">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188">
+        <v>2.83</v>
+      </c>
+      <c r="D188">
+        <v>3.18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,21 @@
   </si>
   <si>
     <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2955,6 +2970,52 @@
         <v>3.18</v>
       </c>
     </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189">
+        <v>2.74</v>
+      </c>
+      <c r="D189">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="D190">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="D191">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192">
+        <v>2.85</v>
+      </c>
+      <c r="D192">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="D193">
+        <v>3.41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/8/2/Forward 2021 - Diaria.xlsx
+++ b/5/8/2/Forward 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -959,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3016,6 +3028,44 @@
         <v>3.41</v>
       </c>
     </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="D194">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195">
+        <v>2.7</v>
+      </c>
+      <c r="D195">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="D196">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197">
+        <v>2.68</v>
+      </c>
+      <c r="D197">
+        <v>3.34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
